--- a/biology/Zoologie/Fulica_newtonii/Fulica_newtonii.xlsx
+++ b/biology/Zoologie/Fulica_newtonii/Fulica_newtonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fulica newtonii, synonyme Fulica newtoni, est une espèce d'oiseau gruiforme de la famille des Rallidés autrefois endémique des Mascareignes et aujourd'hui disparu.
 À La Réunion, son existence est attestée par de nombreux récits de voyageurs et par les découvertes d'os plus récentes. Le dernier récit qui le mentionne en cette île est celui de Dubois en 1672.
@@ -514,7 +526,9 @@
           <t>Informations complémentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Faune endémique des Mascareignes.
 Liste des espèces d'oiseaux disparues.</t>
